--- a/biology/Botanique/Musschia_wollastonii/Musschia_wollastonii.xlsx
+++ b/biology/Botanique/Musschia_wollastonii/Musschia_wollastonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Musschia wollastonii est une plante vivace de la famille des Campanulaceae, elle est endémique à Madère.
 </t>
@@ -511,7 +523,9 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Thomas Lowe a nommé l'espèce en l'honneur de son ami Thomas Vernon Wollaston, entomologiste britannique. 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plante vivace dont l'épi floral peut atteindre 2 mètres de haut.
 Feuilles allongées aux bords dentés.</t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique à la laurisylve de Madère , entre 400 et 900 mètres d'altitude.
 </t>
@@ -604,7 +622,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Musschia wollastonii est considérée par l'UICN, comme une espèce en danger de disparition. Sa population a été estimée en 2011, à moins de 250 spécimens.
 </t>
@@ -635,7 +655,9 @@
           <t>Illustration</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Musschia wollastoniiGravure par Louis Van Houtte,Flore des serres et des jardins de l'Europe
